--- a/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC13_Verify_Search_Dimensions.xlsx
+++ b/Input_files/Actual_testcases/Kaman/Prod/ALL_PAGES/END_TO_END/TC13_Verify_Search_Dimensions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman_ECTEST_IE_Support\Input_files\Actual_testcases\Kaman\Prod\ALL_PAGES\END_TO_END\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMAN_ReExecuteFailedTcs\KAMAN_ECTEST_IE_SANITY\Input_files\Actual_testcases\Kaman\ECTEST\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D45D4B-717E-46A0-BC68-B07076DE9A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C014E775-8A7F-489A-B4BB-84861FC51096}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,10 +94,10 @@
     <t>CSS</t>
   </si>
   <si>
+    <t>PRESS_ENTER</t>
+  </si>
+  <si>
     <t>CLICK_PRE_ENTERTEXT</t>
-  </si>
-  <si>
-    <t>PRESS_ENTER</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -560,13 +560,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="3"/>
@@ -579,7 +579,7 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -589,12 +589,12 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="3"/>
@@ -607,7 +607,7 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -622,7 +622,7 @@
       <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -637,7 +637,7 @@
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
